--- a/.cfg/resource/资源_resource.xlsx
+++ b/.cfg/resource/资源_resource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16800" activeTab="1"/>
+    <workbookView windowHeight="16200"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>ID</t>
   </si>
@@ -28,43 +28,58 @@
     <t>描述</t>
   </si>
   <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>货币ID范围 1- 1000</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>游戏货币</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>人民币代币</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
     <t>ICOM</t>
-  </si>
-  <si>
-    <t>货币ID范围 1- 1000</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>CLIENT</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>游戏货币</t>
-  </si>
-  <si>
-    <t>1.jpg</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>人民币代币</t>
   </si>
   <si>
     <t>类型</t>
@@ -108,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -119,6 +134,112 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,21 +252,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,75 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,30 +280,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -275,25 +290,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,151 +398,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,6 +488,56 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -502,21 +567,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -531,186 +581,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1035,13 +1050,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="5"/>
   <cols>
     <col min="3" max="3" width="12.5" customWidth="1"/>
     <col min="4" max="4" width="11.5982142857143" customWidth="1"/>
@@ -1118,7 +1133,21 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1137,7 +1166,7 @@
   <sheetPr/>
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -1161,16 +1190,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1187,10 +1216,10 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1230,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1272,13 +1301,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1295,7 +1324,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,16 +1349,16 @@
         <v>1000000</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/.cfg/resource/资源_resource.xlsx
+++ b/.cfg/resource/资源_resource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16200"/>
+    <workbookView windowWidth="28000" windowHeight="16140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>名称</t>
   </si>
   <si>
+    <t>子类型</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>subType</t>
+  </si>
+  <si>
     <t>desc</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>DATA_MONEY</t>
+  </si>
+  <si>
     <t>游戏货币</t>
   </si>
   <si>
@@ -73,6 +82,9 @@
     <t>EXP</t>
   </si>
   <si>
+    <t>DATA_EXP</t>
+  </si>
+  <si>
     <t>经验</t>
   </si>
   <si>
@@ -97,7 +109,16 @@
     <t>recycle</t>
   </si>
   <si>
-    <t>1x100</t>
+    <t>体力丹</t>
+  </si>
+  <si>
+    <t>ITEM_NORMAL</t>
+  </si>
+  <si>
+    <t>增加体力</t>
+  </si>
+  <si>
+    <t>[{"cfgId": 1, "value": 100}]</t>
   </si>
   <si>
     <t>属性</t>
@@ -110,6 +131,9 @@
   </si>
   <si>
     <t>屠龙刀</t>
+  </si>
+  <si>
+    <t>EQUIP_NORMAL</t>
   </si>
   <si>
     <t>一把宝刀</t>
@@ -123,54 +147,159 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="13.5"/>
+      <color rgb="FF9876AA"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -178,105 +307,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -290,187 +321,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,15 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -517,21 +539,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -539,6 +546,39 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,230 +598,222 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1050,20 +1082,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5982142857143" customWidth="1"/>
-    <col min="9" max="9" width="52.5267857142857" customWidth="1"/>
+    <col min="3" max="3" width="14.9375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.6015625" customWidth="1"/>
+    <col min="10" max="10" width="52.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1076,83 +1109,101 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="16" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="16" spans="1:5">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="16" spans="1:5">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3 D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3 D3 E3">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1164,22 +1215,23 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="9"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="11.5982142857143" customWidth="1"/>
-    <col min="6" max="6" width="18.4464285714286" customWidth="1"/>
-    <col min="16" max="16" width="50.2946428571429" customWidth="1"/>
+    <col min="3" max="3" width="14.9375" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="6" width="11.6015625" customWidth="1"/>
+    <col min="7" max="7" width="30.7265625" customWidth="1"/>
+    <col min="17" max="17" width="50.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1190,81 +1242,99 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="16" spans="1:7">
       <c r="A4">
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" ht="16" spans="3:3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" ht="16" spans="3:3">
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3 D3 E3 F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3 D3 E3 F3 G3">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1276,21 +1346,22 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="9"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="11.5982142857143" customWidth="1"/>
-    <col min="13" max="13" width="27.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="17.3125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="11.6015625" customWidth="1"/>
+    <col min="14" max="14" width="27.4296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1301,69 +1372,87 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="16" spans="1:6">
       <c r="A4">
         <v>1000000</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" ht="16" spans="3:3">
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" ht="16" spans="3:3">
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3 D3 E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3 D3 E3 F3">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1381,7 +1470,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/.cfg/resource/资源_resource.xlsx
+++ b/.cfg/resource/资源_resource.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="16140" activeTab="2"/>
+    <workbookView windowWidth="22320" windowHeight="9155"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -52,6 +52,12 @@
     <t>icon</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>ALL</t>
   </si>
   <si>
@@ -61,7 +67,7 @@
     <t>M1</t>
   </si>
   <si>
-    <t>DATA_MONEY</t>
+    <t>DATA_CURRENCY</t>
   </si>
   <si>
     <t>游戏货币</t>
@@ -147,16 +153,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -168,24 +174,69 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="10.5"/>
+      <color rgb="FF9876AA"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -193,113 +244,67 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -307,8 +312,16 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -321,187 +334,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,6 +525,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -541,26 +565,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -579,6 +583,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,205 +628,206 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1080,20 +1094,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
-    <col min="3" max="3" width="14.9375" customWidth="1"/>
+    <col min="3" max="3" width="14.9351851851852" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6015625" customWidth="1"/>
-    <col min="10" max="10" width="52.5234375" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="10" max="10" width="52.5277777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1138,10 +1152,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1150,60 +1164,77 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="16" spans="1:5">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="14.4" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" ht="16" spans="1:5">
-      <c r="A5">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" ht="14.4" spans="1:5">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" ht="16" spans="1:5">
-      <c r="A6">
+      <c r="C6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:5">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C7" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3 D3 E3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 C4 D4 E4">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1213,22 +1244,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="9"/>
-    <col min="3" max="3" width="14.9375" customWidth="1"/>
+    <col min="3" max="3" width="14.9351851851852" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="6" width="11.6015625" customWidth="1"/>
-    <col min="7" max="7" width="30.7265625" customWidth="1"/>
-    <col min="17" max="17" width="50.296875" customWidth="1"/>
+    <col min="5" max="6" width="11.6018518518519" customWidth="1"/>
+    <col min="7" max="7" width="30.7222222222222" customWidth="1"/>
+    <col min="17" max="17" width="50.2962962962963" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -1245,16 +1276,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1274,10 +1305,10 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1285,10 +1316,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1300,41 +1331,64 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="16" spans="1:7">
-      <c r="A4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:7">
+      <c r="A5">
         <v>1000</v>
       </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" ht="16" spans="3:3">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" ht="16" spans="3:3">
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="3:3">
       <c r="C6" s="1"/>
+    </row>
+    <row r="7" ht="18" spans="3:3">
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3 D3 E3 F3 G3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 C4 D4 E4 F4 G4">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1344,21 +1398,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="13.8" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="2" width="9"/>
-    <col min="3" max="3" width="17.3125" customWidth="1"/>
+    <col min="3" max="3" width="17.3148148148148" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="11.6015625" customWidth="1"/>
-    <col min="14" max="14" width="27.4296875" customWidth="1"/>
+    <col min="5" max="5" width="11.6018518518519" customWidth="1"/>
+    <col min="14" max="14" width="27.4259259259259" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -1375,13 +1429,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1401,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1409,10 +1463,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1421,38 +1475,58 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" ht="16" spans="1:6">
-      <c r="A4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:6">
+      <c r="A5">
         <v>1000000</v>
       </c>
-      <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C5" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" ht="16" spans="3:3">
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" ht="16" spans="3:3">
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="3:3">
       <c r="C6" s="1"/>
+    </row>
+    <row r="7" ht="18" spans="3:3">
+      <c r="C7" s="1"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3 B3 C3 D3 E3 F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 B4 C4 D4 E4 F4">
       <formula1>"ALL,SERVER,CLIENT"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1462,7 +1536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -1470,7 +1544,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
